--- a/DATA_TABLES AND EXCEL EXAMPLES AND CONCEPTS AND METHODS/FILTER_DATA_TABLE_ACTIVITY/OUTPUT.xlsx
+++ b/DATA_TABLES AND EXCEL EXAMPLES AND CONCEPTS AND METHODS/FILTER_DATA_TABLE_ACTIVITY/OUTPUT.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -357,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,4 +375,31 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>